--- a/Data/Config - Prod.xlsx
+++ b/Data/Config - Prod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A52C02-68A1-4006-B04D-2684FF583904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65715238-0D36-4DEC-9868-1665F9E5902C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,9 +307,6 @@
     <t>https://csp.nike.eshopworld.com/</t>
   </si>
   <si>
-    <t>ESWNikeCSP_Prod_Credentials</t>
-  </si>
-  <si>
     <t>01/01/2021</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>R:\Daily Operations\eCommerce Refund Report.xlsx</t>
+  </si>
+  <si>
+    <t>ESWCSP_NikeProd_Credentials</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>67</v>
@@ -842,7 +842,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>70</v>
@@ -887,7 +887,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -955,7 +955,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>54</v>
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">

--- a/Data/Config - Prod.xlsx
+++ b/Data/Config - Prod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65715238-0D36-4DEC-9868-1665F9E5902C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBEE690-A2C2-4FBA-ADA5-54B1E1E59DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -313,13 +313,13 @@
     <t>Boolean to specify if a snapshot should be taken when CSP is searched, selected or approved</t>
   </si>
   <si>
-    <t>Y:\CustomerService2013\VSD\Refunds\Refund Files\Nike\{year}</t>
-  </si>
-  <si>
-    <t>R:\Daily Operations\eCommerce Refund Report.xlsx</t>
-  </si>
-  <si>
     <t>ESWCSP_NikeProd_Credentials</t>
+  </si>
+  <si>
+    <t>\\srvfildub01\CustomerService\CustomerService2013\VSD\Refunds\Refund Files\Nike\{year}</t>
+  </si>
+  <si>
+    <t>\\srvfildub01\Fraud\eCommerce Refund Report.xlsx</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -808,8 +808,8 @@
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>92</v>
+      <c r="B6" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>67</v>
@@ -841,8 +841,8 @@
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>93</v>
+      <c r="B9" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>70</v>
@@ -887,7 +887,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -2045,9 +2045,11 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{4CD738E5-0B91-4C67-B908-3C918FD0FA7E}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{BBEA976A-B1C1-4482-B078-B20210B2F073}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{33DA68A6-8C64-43E7-878B-2CFFAF3A4F5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Data/Config - Prod.xlsx
+++ b/Data/Config - Prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBEE690-A2C2-4FBA-ADA5-54B1E1E59DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE38AF6B-4F70-4C89-9B7D-1786292BFB4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     <t>\\srvfildub01\CustomerService\CustomerService2013\VSD\Refunds\Refund Files\Nike\{year}</t>
   </si>
   <si>
-    <t>\\srvfildub01\Fraud\eCommerce Refund Report.xlsx</t>
+    <t>\\srvfildub01\Fraud\Daily Operations\eCommerce Refund Report.xlsx</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config - Prod.xlsx
+++ b/Data/Config - Prod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE38AF6B-4F70-4C89-9B7D-1786292BFB4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D419A9-3F79-4B44-8481-DE75E1B3C643}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -316,10 +316,10 @@
     <t>ESWCSP_NikeProd_Credentials</t>
   </si>
   <si>
-    <t>\\srvfildub01\CustomerService\CustomerService2013\VSD\Refunds\Refund Files\Nike\{year}</t>
-  </si>
-  <si>
-    <t>\\srvfildub01\Fraud\Daily Operations\eCommerce Refund Report.xlsx</t>
+    <t>\\ESW-TZERO-NFS01\Fraud\Daily Operations\eCommerce Refund Report.xlsx</t>
+  </si>
+  <si>
+    <t>\\esw-tzero-nfs01\CustomerService\CustomerService2013\VSD\Refunds\Refund Files\Nike\{year}</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -809,7 +809,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>67</v>
@@ -842,7 +842,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>70</v>
@@ -1008,7 +1008,7 @@
         <v>63</v>
       </c>
       <c r="B27" s="5">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>64</v>
@@ -1019,7 +1019,7 @@
         <v>87</v>
       </c>
       <c r="B28" s="5">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1028,7 +1028,7 @@
         <v>85</v>
       </c>
       <c r="B30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>83</v>
@@ -2057,7 +2057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2106,7 +2108,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>

--- a/Data/Config - Prod.xlsx
+++ b/Data/Config - Prod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D419A9-3F79-4B44-8481-DE75E1B3C643}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB22C67-8011-4EAC-82BF-BFDFF5A31493}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -729,7 +729,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1039,7 +1039,7 @@
         <v>84</v>
       </c>
       <c r="B31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>91</v>
